--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126271a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126271a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -35,9 +32,6 @@
   </si>
   <si>
     <t>condição de ocupação na semana de referência.1</t>
-  </si>
-  <si>
-    <t>unnamed: 5_level_1</t>
   </si>
   <si>
     <t>pará</t>
@@ -472,21 +466,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>7.58379160568826</v>
@@ -506,7 +500,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>8.565076651056506</v>
@@ -526,7 +520,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>8.668863043340993</v>
@@ -546,7 +540,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>7.832469320337444</v>
@@ -566,7 +560,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>6.58279334290367</v>
@@ -586,7 +580,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>8.643215316588895</v>
@@ -606,7 +600,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>6.098954572170806</v>
@@ -626,7 +620,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>6.226388212309117</v>
@@ -646,7 +640,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>7.32473914810967</v>
@@ -666,7 +660,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>9.101545279409731</v>
@@ -686,7 +680,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>8.293800378778284</v>
@@ -706,7 +700,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>9.407245520179739</v>
@@ -726,7 +720,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>5.812408779428076</v>
@@ -746,7 +740,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>7.829434925460052</v>
@@ -766,7 +760,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>7.241642621380239</v>
@@ -786,7 +780,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>10.97861337314196</v>
@@ -806,7 +800,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>7.483510433566236</v>
